--- a/BuildingPrimingExperiment/stimuli_sample.xlsx
+++ b/BuildingPrimingExperiment/stimuli_sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs3402/BuildingPrimingExperiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE796756-C9C1-AD41-864B-BB1F32C8F502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="13520" yWindow="6620" windowWidth="25180" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Related prime</t>
   </si>
@@ -81,12 +82,51 @@
   </si>
   <si>
     <t>JUMP</t>
+  </si>
+  <si>
+    <t>Filler 1</t>
+  </si>
+  <si>
+    <t>Filler 2</t>
+  </si>
+  <si>
+    <t>Filler 3</t>
+  </si>
+  <si>
+    <t>Filler 4</t>
+  </si>
+  <si>
+    <t>unrelated prime</t>
+  </si>
+  <si>
+    <t>RESFO</t>
+  </si>
+  <si>
+    <t>PRAWT</t>
+  </si>
+  <si>
+    <t>LOMBY</t>
+  </si>
+  <si>
+    <t>CAITEP</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>SURVEY</t>
+  </si>
+  <si>
+    <t>FRIEND</t>
+  </si>
+  <si>
+    <t>ACTION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,17 +437,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -417,8 +459,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -431,8 +479,17 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,8 +502,17 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -459,8 +525,17 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -472,6 +547,15 @@
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
